--- a/data/trans_camb/P32-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.302165040027039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.849613814507729</v>
+        <v>2.849613814507728</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.1001242859782706</v>
@@ -655,7 +655,7 @@
         <v>4.233983199001804</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.621360041771709</v>
+        <v>5.621360041771707</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.285463671845942</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.227733507638151</v>
+        <v>0.7904588964093551</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.92365237666195</v>
+        <v>-1.798721231134226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.136871269322834</v>
+        <v>-2.884960818379875</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.445636765394855</v>
+        <v>-3.23671107399585</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1279905834570829</v>
+        <v>0.1406591755347232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6758548949444505</v>
+        <v>-0.4129788148337591</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1532556297884384</v>
+        <v>0.2786273601631797</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06478275059946162</v>
+        <v>-0.2596761180304574</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.5527674878372077</v>
+        <v>-0.636709907034423</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.45247256115883</v>
+        <v>9.776509510655915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.091963691187239</v>
+        <v>7.276706753105384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.32257045064427</v>
+        <v>11.48994094169196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.123666161475235</v>
+        <v>3.335638138329982</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.752207689120192</v>
+        <v>9.27713009303112</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.40983162395331</v>
+        <v>14.91955539819705</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.386397551046512</v>
+        <v>6.516964964739688</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.531683489994627</v>
+        <v>6.002085616935437</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.19876287643945</v>
+        <v>10.92207627435702</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4444754798999036</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5501705767010702</v>
+        <v>0.5501705767010699</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.03524806427780835</v>
@@ -760,7 +760,7 @@
         <v>1.490544581580984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.978961029735325</v>
+        <v>1.978961029735324</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.7732434425091899</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1602811033011262</v>
+        <v>0.06391839049614827</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2939759917279321</v>
+        <v>-0.2879752592048667</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5460694649531898</v>
+        <v>-0.4830464396844028</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.832255215325605</v>
+        <v>-0.7945901797715187</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1750174639763509</v>
+        <v>-0.08093228805835963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4678167629177638</v>
+        <v>-0.4572133113244462</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02003870017277902</v>
+        <v>0.04128382586123237</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03241627030331021</v>
+        <v>-0.07033945180677345</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1742144448111103</v>
+        <v>-0.1672290949912006</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.224996422183102</v>
+        <v>2.899380721551333</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.024959929455578</v>
+        <v>2.271171570903645</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.550134481081299</v>
+        <v>3.352452765236756</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.602287926515558</v>
+        <v>2.84138877122923</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.358106557916023</v>
+        <v>8.149520676136076</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>12.55285491918191</v>
+        <v>11.33359813344388</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.164048775998807</v>
+        <v>2.255803397783694</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.148526125035636</v>
+        <v>2.027579031549403</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.231605137345583</v>
+        <v>3.202203895428067</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.518071445580078</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.299057018701349</v>
+        <v>2.299057018701348</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.312040047486547</v>
@@ -878,7 +878,7 @@
         <v>3.325285862882234</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.417870686051465</v>
+        <v>3.417870686051463</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.204428275118246</v>
+        <v>1.934964945480529</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.256188250780367</v>
+        <v>0.9959843752326901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3521461429450375</v>
+        <v>0.6509704222127261</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4200032566385715</v>
+        <v>-0.1702590100611696</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6394138070219058</v>
+        <v>-0.3678591234319455</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9006168171028204</v>
+        <v>-1.16341269885832</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.07419365155275</v>
+        <v>2.080486705044898</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.292295347647704</v>
+        <v>1.172119948827891</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4889002998653395</v>
+        <v>0.4897841556200771</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.282772241543997</v>
+        <v>8.107330262965997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.265621623750059</v>
+        <v>7.345366349546528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.809627809841993</v>
+        <v>9.521165004962999</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.194868373354516</v>
+        <v>7.254457778650957</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.783153635011657</v>
+        <v>5.506768981164994</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.031473221540187</v>
+        <v>6.876825997970422</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.751523015537058</v>
+        <v>6.717964583646385</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.717101420027903</v>
+        <v>5.562354011402392</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.576220534485337</v>
+        <v>7.115712853035777</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>2.083037122705747</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.901860698026733</v>
+        <v>1.901860698026732</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.758766784351218</v>
@@ -994,29 +994,27 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4383092564773385</v>
+        <v>0.4668641541727676</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2040764597092619</v>
+        <v>0.1951643811948851</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.006968548154700037</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>-0.8238216149915847</v>
-      </c>
+        <v>0.07293697171915232</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.5592128197521349</v>
+        <v>-0.7055312219053698</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.5915118161887537</v>
+        <v>0.5790969870410211</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3249634923497046</v>
+        <v>0.2879362888972287</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.06779815805391881</v>
+        <v>0.09046021232606183</v>
       </c>
     </row>
     <row r="15">
@@ -1027,25 +1025,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.097657253614996</v>
+        <v>4.178878884923269</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.991575914336286</v>
+        <v>3.578139192559107</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.159029870172177</v>
+        <v>4.445003330376383</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4.153310837482234</v>
+        <v>3.948395946066403</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.443105850546981</v>
+        <v>3.333775977848792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.712530882814961</v>
+        <v>3.871539262929725</v>
       </c>
     </row>
     <row r="16">
@@ -1066,7 +1064,7 @@
         <v>1.978855539764966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.827279076141648</v>
+        <v>5.827279076141647</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.291569616340447</v>
@@ -1095,31 +1093,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.400138497905162</v>
+        <v>1.317393489898928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1926731107737877</v>
+        <v>0.04232767771464854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.168845500043792</v>
+        <v>2.777596616254355</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07513965641498595</v>
+        <v>-0.1812848837675851</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.842491757042224</v>
+        <v>-1.796651029794766</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.001199476353142</v>
+        <v>-1.251446008312431</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.613074506148647</v>
+        <v>1.407903299009418</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.08896207571006041</v>
+        <v>-0.003335060330242792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.187588893568857</v>
+        <v>2.20161276214242</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1128,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.371935585990244</v>
+        <v>6.05643717065969</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.403284011212078</v>
+        <v>4.448768537487259</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.375945273420209</v>
+        <v>9.545563738061738</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.940262403842028</v>
+        <v>5.857194267407014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.968245393496912</v>
+        <v>1.989319339090545</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.494632370758783</v>
+        <v>3.47135072419208</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.13343200581557</v>
+        <v>5.182345434316395</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.97515554779971</v>
+        <v>2.740352325404447</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.792494645424184</v>
+        <v>6.832274828798377</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1169,7 @@
         <v>1.638015147315743</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4.82358171303895</v>
+        <v>4.823581713038949</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>2.37956039939433</v>
@@ -1200,29 +1198,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.440369392892865</v>
+        <v>0.3865546586291682</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1118935925214814</v>
+        <v>-0.09279365134908998</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.102455977570698</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>-0.4765034623377408</v>
-      </c>
+        <v>1.0917761880301</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
-      <c r="H20" s="6" t="n">
-        <v>-0.7747955950416935</v>
-      </c>
+      <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>0.6754515428657401</v>
+        <v>0.5301118866142609</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1619731598892512</v>
+        <v>-0.1117534799707268</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.044584081300918</v>
+        <v>1.027352344353464</v>
       </c>
     </row>
     <row r="21">
@@ -1233,25 +1227,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>11.68971358004565</v>
+        <v>12.89643071045278</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>7.816759339832207</v>
+        <v>9.274010476789023</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>16.69988716076941</v>
+        <v>18.35846879990938</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>9.168968642890102</v>
+        <v>8.856255406379514</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.965815417875765</v>
+        <v>4.338744439809839</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>11.429794965985</v>
+        <v>12.19627839983292</v>
       </c>
     </row>
     <row r="22">
@@ -1301,31 +1295,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.162064149237743</v>
+        <v>3.375643481784741</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.657491387392959</v>
+        <v>2.404492878336083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9023388350996673</v>
+        <v>0.7705300317483873</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.268420767156783</v>
+        <v>-4.792420975297078</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.233005660040712</v>
+        <v>-1.172864607730784</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.413916261483648</v>
+        <v>-2.35937724512473</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.359539469074936</v>
+        <v>1.49248127310613</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.850023265804906</v>
+        <v>1.885434004900294</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5821349542110668</v>
+        <v>0.4647465953829832</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1330,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.626451569708887</v>
+        <v>10.13885422695652</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.480091901394967</v>
+        <v>8.511425741500938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.913577114522949</v>
+        <v>5.959550342291857</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.606126955798541</v>
+        <v>4.580225842245921</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.854446227324659</v>
+        <v>2.908860392403752</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.635071727251684</v>
+        <v>6.047004013939121</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.907309015409513</v>
+        <v>6.108493267856336</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.310758587215754</v>
+        <v>4.236782169694964</v>
       </c>
     </row>
     <row r="25">
@@ -1406,29 +1400,29 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.7943306675207772</v>
+        <v>0.7676176982058056</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6882284110008827</v>
+        <v>0.665433681520139</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07254623018370161</v>
+        <v>-0.07283538305818935</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>-0.7753401103783809</v>
+        <v>-0.6790240117905364</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8332008295080645</v>
+        <v>-0.8397492763996857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3730598529175287</v>
+        <v>0.3298326404509168</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5968700301158507</v>
+        <v>0.507684442004917</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1154445714913117</v>
+        <v>0.08307123184234097</v>
       </c>
     </row>
     <row r="27">
@@ -1439,25 +1433,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25.16984381316424</v>
+        <v>25.39313606523768</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23.01174098383144</v>
+        <v>23.43228157255998</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15.4644554888601</v>
+        <v>14.84212635088458</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>10.32187429190605</v>
+        <v>10.61183693989076</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11.22295169884331</v>
+        <v>10.57448632818489</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8.917703007726896</v>
+        <v>8.613786513036573</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1472,7 @@
         <v>0.2921532051024023</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.395244639649101</v>
+        <v>3.395244639649103</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.4646994900267215</v>
@@ -1487,7 +1481,7 @@
         <v>1.828134705895795</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.069060173522567</v>
+        <v>2.069060173522566</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.571141859580378</v>
@@ -1496,7 +1490,7 @@
         <v>0.6977530605737858</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.732505373667083</v>
+        <v>2.732505373667085</v>
       </c>
     </row>
     <row r="29">
@@ -1507,31 +1501,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.314605024108006</v>
+        <v>-5.882865836362212</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.841519381143601</v>
+        <v>-4.36050117160764</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.218682709483162</v>
+        <v>-1.542470939633135</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.189045880695562</v>
+        <v>-5.363586300260467</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.905467499931318</v>
+        <v>-2.609835295902176</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.697865375569446</v>
+        <v>-2.371314044117278</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.968588550198307</v>
+        <v>-5.258618686494576</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.625658803577464</v>
+        <v>-3.001262456287053</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9411262351001839</v>
+        <v>-0.7871164831895607</v>
       </c>
     </row>
     <row r="30">
@@ -1542,31 +1536,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.139101218147049</v>
+        <v>2.770169780752275</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.565140176091719</v>
+        <v>4.940244718733034</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.052745944246325</v>
+        <v>7.756278231598265</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.813894219878835</v>
+        <v>1.823347444931386</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.301904248202829</v>
+        <v>6.303829465353814</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.853146500194888</v>
+        <v>5.041143869092806</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.649140324047957</v>
+        <v>1.223069651977062</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.248944421129737</v>
+        <v>4.000444793060835</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.010814811415661</v>
+        <v>5.930354253183859</v>
       </c>
     </row>
     <row r="31">
@@ -1583,7 +1577,7 @@
         <v>0.05345811988590344</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6212610090131105</v>
+        <v>0.6212610090131108</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.3402404189202646</v>
@@ -1601,7 +1595,7 @@
         <v>0.1639877463455386</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6422005483376212</v>
+        <v>0.6422005483376215</v>
       </c>
     </row>
     <row r="32">
@@ -1612,25 +1606,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7967332535473866</v>
+        <v>-0.7799221072939845</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5754302220666242</v>
+        <v>-0.5550097502206545</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1944819236727091</v>
+        <v>-0.2413813166737149</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.7662083890852432</v>
+        <v>-0.7699016662529905</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4641873323396749</v>
+        <v>-0.4817517044171863</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1953366753527724</v>
+        <v>-0.1475122760640519</v>
       </c>
     </row>
     <row r="33">
@@ -1641,25 +1635,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9798675172348829</v>
+        <v>1.0714918223782</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.432881796239354</v>
+        <v>1.605097326670754</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.328263753145647</v>
+        <v>2.363090203913284</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>0.809901850269136</v>
+        <v>0.6191597185562602</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.735700613531917</v>
+        <v>1.653740339507177</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.604151872797379</v>
+        <v>2.33197397108983</v>
       </c>
     </row>
     <row r="34">
@@ -1680,7 +1674,7 @@
         <v>-0.7742734275951879</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.44642462563191</v>
+        <v>4.446424625631912</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0</v>
@@ -1689,7 +1683,7 @@
         <v>1.588174247709008</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.131361514809176</v>
+        <v>2.131361514809177</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.137820417533105</v>
@@ -1709,29 +1703,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.1244509143508658</v>
+        <v>-0.6135703155331432</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.405495486579461</v>
+        <v>-5.780813400446936</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>0.101773532074169</v>
+        <v>-0.1881155232367853</v>
       </c>
       <c r="F35" s="5" t="inlineStr"/>
       <c r="G35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.5727062611479078</v>
+        <v>0.5752047243570012</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.5263209875847585</v>
+        <v>-0.8028602089810131</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.189748213259733</v>
+        <v>-4.204840811103864</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.08418275783281197</v>
+        <v>0.001595955029069381</v>
       </c>
     </row>
     <row r="36">
@@ -1742,29 +1736,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.13503065372274</v>
+        <v>11.22295826476087</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.611791724087691</v>
+        <v>1.649536867890436</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.795400202873483</v>
+        <v>7.953944755177932</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="n">
-        <v>6.743411067752865</v>
+        <v>8.338072691353132</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.853723504832224</v>
+        <v>6.170090622547723</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.604225348205164</v>
+        <v>7.558708824988283</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.704405663860127</v>
+        <v>1.735178407378852</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.375426825972428</v>
+        <v>6.205450040125094</v>
       </c>
     </row>
     <row r="37">
@@ -1812,21 +1806,19 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5518441104218588</v>
+        <v>-0.6829054156898686</v>
       </c>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3205767067486163</v>
+        <v>-0.3046587771976196</v>
       </c>
       <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="inlineStr"/>
       <c r="H38" s="6" t="inlineStr"/>
-      <c r="I38" s="6" t="n">
-        <v>-0.4926576708218017</v>
-      </c>
+      <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="inlineStr"/>
       <c r="K38" s="6" t="n">
-        <v>-0.3551271967718626</v>
+        <v>-0.2323184215769451</v>
       </c>
     </row>
     <row r="39">
@@ -1864,7 +1856,7 @@
         <v>1.165971724741055</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.1431180010348421</v>
+        <v>-0.1431180010348419</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -1882,7 +1874,7 @@
         <v>0.7152000095700594</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.628940719602353</v>
+        <v>0.6289407196023533</v>
       </c>
     </row>
     <row r="41">
@@ -1893,13 +1885,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.691665360853802</v>
+        <v>-2.758269138274869</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.780693054814723</v>
+        <v>-2.707948553941394</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.05871092125791</v>
+        <v>-4.96015208144081</v>
       </c>
       <c r="F41" s="5" t="inlineStr"/>
       <c r="G41" s="5" t="inlineStr"/>
@@ -1907,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.218272912817483</v>
+        <v>-2.219667633179493</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.347245003755831</v>
+        <v>-2.300246888475649</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.014858833287861</v>
+        <v>-3.307451966759065</v>
       </c>
     </row>
     <row r="42">
@@ -1924,27 +1916,27 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.6858338605128</v>
+        <v>10.62116077306385</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.555377642276992</v>
+        <v>6.518325394557098</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.093690902005857</v>
+        <v>2.282053890874458</v>
       </c>
       <c r="F42" s="5" t="inlineStr"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="n">
-        <v>14.66620122532964</v>
+        <v>12.93981030407621</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.30760109171363</v>
+        <v>8.17851337538797</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.176990038959919</v>
+        <v>4.443665290010299</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.960352097861738</v>
+        <v>2.97367755284522</v>
       </c>
     </row>
     <row r="43">
@@ -1961,7 +1953,7 @@
         <v>0.8470029155171253</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1039659552348199</v>
+        <v>-0.1039659552348197</v>
       </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr"/>
@@ -1977,7 +1969,7 @@
         <v>0.636938132866534</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5601179002613191</v>
+        <v>0.5601179002613195</v>
       </c>
     </row>
     <row r="44">
@@ -2032,7 +2024,7 @@
         <v>2.52043035817257</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3.759696653775256</v>
+        <v>3.759696653775255</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.6809121877644861</v>
@@ -2050,7 +2042,7 @@
         <v>2.195706899642088</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>3.097231925436511</v>
+        <v>3.09723192543651</v>
       </c>
     </row>
     <row r="47">
@@ -2061,31 +2053,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.6821612893938</v>
+        <v>2.589997370424974</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.273079055273578</v>
+        <v>1.263445923167827</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.271398516380783</v>
+        <v>2.261047235800225</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.6316875585981321</v>
+        <v>-0.5690562346720659</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.5302991641437997</v>
+        <v>0.4393413770461828</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.5642143604547321</v>
+        <v>0.6454792471641312</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.763644076273358</v>
+        <v>1.876836719718304</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.232789175214244</v>
+        <v>1.251650828604843</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.0752001594303</v>
+        <v>1.890466992467622</v>
       </c>
     </row>
     <row r="48">
@@ -2096,31 +2088,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.321486031262173</v>
+        <v>5.405998967433164</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.785104801672497</v>
+        <v>3.78920555029956</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.279019198721421</v>
+        <v>5.28866711107375</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.003190431916776</v>
+        <v>1.929388322785774</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.238730074169697</v>
+        <v>3.09976532664202</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.749417118555415</v>
+        <v>3.660055443802205</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.928283742220922</v>
+        <v>3.947094868119743</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.189142802040658</v>
+        <v>3.169216642900173</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.426000084545295</v>
+        <v>4.189236060423481</v>
       </c>
     </row>
     <row r="49">
@@ -2166,31 +2158,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.7941891430546627</v>
+        <v>0.7523059652989577</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.3804279879982054</v>
+        <v>0.3673379157051917</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.672216618467118</v>
+        <v>0.6960883045244998</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3070694517829721</v>
+        <v>-0.2944288354083832</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1520414735143491</v>
+        <v>0.1748537852191651</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1625792519752853</v>
+        <v>0.2296775350666087</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6379743142785517</v>
+        <v>0.6736906767390292</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4159190157807411</v>
+        <v>0.4279272721432132</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.7425357832120286</v>
+        <v>0.6737622957935602</v>
       </c>
     </row>
     <row r="51">
@@ -2201,31 +2193,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.371251764265455</v>
+        <v>2.36026971263729</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.745354962766841</v>
+        <v>1.674675813464951</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.267758282787707</v>
+        <v>2.4765188256176</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>2.322840084691677</v>
+        <v>2.158859278961776</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>3.618796770727195</v>
+        <v>3.387969233832544</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>4.132485325089032</v>
+        <v>3.837521950634414</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.998778598307734</v>
+        <v>2.0304991237468</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.652481370295045</v>
+        <v>1.616505779831636</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.282360830242046</v>
+        <v>2.137625907217459</v>
       </c>
     </row>
     <row r="52">
